--- a/assets/excel/Data Posisi.xlsx
+++ b/assets/excel/Data Posisi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>Web Developer</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Editor</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,6 +434,22 @@
       </c>
       <c r="B6" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
